--- a/training/output/Resnet34_ViT/W/W1_W0.xlsx
+++ b/training/output/Resnet34_ViT/W/W1_W0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,802 +447,1602 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.3710664335664335</v>
+        <v>0.4552083333333333</v>
       </c>
       <c r="B2" t="n">
-        <v>3.144027569077231</v>
+        <v>2.73006546497345</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.6166958041958042</v>
+        <v>0.8539583333333334</v>
       </c>
       <c r="B3" t="n">
-        <v>2.570234645496715</v>
+        <v>2.037566274404526</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.7047639860139859</v>
+        <v>0.8718750000000001</v>
       </c>
       <c r="B4" t="n">
-        <v>2.271163116801869</v>
+        <v>1.74166801571846</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.7821241258741259</v>
+        <v>0.896875</v>
       </c>
       <c r="B5" t="n">
-        <v>2.059010055932132</v>
+        <v>1.581577330827713</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.784965034965035</v>
+        <v>0.901875</v>
       </c>
       <c r="B6" t="n">
-        <v>1.839756456288424</v>
+        <v>1.431115180253983</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.901875</v>
       </c>
       <c r="B7" t="n">
-        <v>1.771805015477267</v>
+        <v>1.338860601186752</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.7991695804195804</v>
+        <v>0.9343750000000001</v>
       </c>
       <c r="B8" t="n">
-        <v>1.689402905377475</v>
+        <v>1.270067811012268</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.8275786713286714</v>
+        <v>0.9193750000000001</v>
       </c>
       <c r="B9" t="n">
-        <v>1.675902447917245</v>
+        <v>1.20797199010849</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.8389423076923077</v>
+        <v>0.9375</v>
       </c>
       <c r="B10" t="n">
-        <v>1.646685529838909</v>
+        <v>1.171618938446045</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.9222916666666666</v>
       </c>
       <c r="B11" t="n">
-        <v>1.593073920770125</v>
+        <v>1.104541838169098</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.816215034965035</v>
+        <v>0.9270833333333334</v>
       </c>
       <c r="B12" t="n">
-        <v>1.594458449970592</v>
+        <v>1.046733468770981</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.9347916666666667</v>
       </c>
       <c r="B13" t="n">
-        <v>1.580293807116422</v>
+        <v>1.059666723012924</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.8361013986013986</v>
+        <v>0.9397916666666667</v>
       </c>
       <c r="B14" t="n">
-        <v>1.538880873810161</v>
+        <v>1.061781108379364</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.8275786713286714</v>
+        <v>0.9470833333333334</v>
       </c>
       <c r="B15" t="n">
-        <v>1.525361938910051</v>
+        <v>1.005638062953949</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.911875</v>
       </c>
       <c r="B16" t="n">
-        <v>1.507856677878987</v>
+        <v>0.9850753247737885</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.8304195804195804</v>
+        <v>0.9475</v>
       </c>
       <c r="B17" t="n">
-        <v>1.48707054419951</v>
+        <v>0.9487067461013794</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.8361013986013986</v>
+        <v>0.9522916666666666</v>
       </c>
       <c r="B18" t="n">
-        <v>1.517692880197005</v>
+        <v>0.9349728524684906</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.8361013986013986</v>
+        <v>0.944375</v>
       </c>
       <c r="B19" t="n">
-        <v>1.469180936163122</v>
+        <v>0.9324552267789841</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.8332604895104896</v>
+        <v>0.9575</v>
       </c>
       <c r="B20" t="n">
-        <v>1.474238915876909</v>
+        <v>0.9277690351009369</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.8389423076923077</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="B21" t="n">
-        <v>1.47307673367587</v>
+        <v>0.9209248870611191</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.8389423076923077</v>
+        <v>0.9425</v>
       </c>
       <c r="B22" t="n">
-        <v>1.460542418740012</v>
+        <v>0.8969651907682419</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.8361013986013986</v>
+        <v>0.9525</v>
       </c>
       <c r="B23" t="n">
-        <v>1.47015890750018</v>
+        <v>0.9062083512544632</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.8503059440559441</v>
+        <v>0.9525</v>
       </c>
       <c r="B24" t="n">
-        <v>1.452277866276828</v>
+        <v>0.8992067724466324</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.8389423076923077</v>
+        <v>0.96</v>
       </c>
       <c r="B25" t="n">
-        <v>1.435085020282052</v>
+        <v>0.880849152803421</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.847465034965035</v>
+        <v>0.9522916666666666</v>
       </c>
       <c r="B26" t="n">
-        <v>1.446609979326075</v>
+        <v>0.8851529955863953</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.9395833333333334</v>
       </c>
       <c r="B27" t="n">
-        <v>1.512762286446311</v>
+        <v>0.8780665546655655</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.8332604895104896</v>
+        <v>0.9575</v>
       </c>
       <c r="B28" t="n">
-        <v>1.448691178451885</v>
+        <v>0.8544684946537018</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.8304195804195804</v>
+        <v>0.9625</v>
       </c>
       <c r="B29" t="n">
-        <v>1.44334555755962</v>
+        <v>0.8469333201646805</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8361013986013986</v>
+        <v>0.96</v>
       </c>
       <c r="B30" t="n">
-        <v>1.4380180998282</v>
+        <v>0.8478646129369736</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.8332604895104896</v>
+        <v>0.9547916666666666</v>
       </c>
       <c r="B31" t="n">
-        <v>1.443396145647222</v>
+        <v>0.8623441606760025</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.9547916666666666</v>
       </c>
       <c r="B32" t="n">
-        <v>1.458470685915513</v>
+        <v>0.8487947434186935</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.8304195804195804</v>
+        <v>0.9572916666666665</v>
       </c>
       <c r="B33" t="n">
-        <v>1.444831479679454</v>
+        <v>0.8329336494207382</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.8332604895104896</v>
+        <v>0.9675</v>
       </c>
       <c r="B34" t="n">
-        <v>1.43290210312063</v>
+        <v>0.837792232632637</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.8332604895104896</v>
+        <v>0.965</v>
       </c>
       <c r="B35" t="n">
-        <v>1.419617089358243</v>
+        <v>0.8160911351442337</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.8275786713286714</v>
+        <v>0.9597916666666666</v>
       </c>
       <c r="B36" t="n">
-        <v>1.433089890263297</v>
+        <v>0.8227101564407349</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.8332604895104896</v>
+        <v>0.9520833333333333</v>
       </c>
       <c r="B37" t="n">
-        <v>1.441184282302856</v>
+        <v>0.8156490325927734</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.8326048951048951</v>
+        <v>0.9622916666666667</v>
       </c>
       <c r="B38" t="n">
-        <v>1.451234925876964</v>
+        <v>0.8122558742761612</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.8389423076923077</v>
+        <v>0.9624999999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>1.435456178405068</v>
+        <v>0.8187832832336426</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.8354458041958043</v>
+        <v>0.9622916666666667</v>
       </c>
       <c r="B40" t="n">
-        <v>1.432960282672535</v>
+        <v>0.8721615374088287</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.8439685314685316</v>
+        <v>0.9422916666666666</v>
       </c>
       <c r="B41" t="n">
-        <v>1.415374018929221</v>
+        <v>0.8403977453708649</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.847465034965035</v>
+        <v>0.9572916666666667</v>
       </c>
       <c r="B42" t="n">
-        <v>1.439349521290172</v>
+        <v>0.806220144033432</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.8389423076923077</v>
+        <v>0.9775</v>
       </c>
       <c r="B43" t="n">
-        <v>1.42351204698736</v>
+        <v>0.8029011338949203</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.8389423076923077</v>
+        <v>0.97</v>
       </c>
       <c r="B44" t="n">
-        <v>1.424038952047175</v>
+        <v>0.7917247861623764</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.8332604895104896</v>
+        <v>0.9672916666666665</v>
       </c>
       <c r="B45" t="n">
-        <v>1.438166612928564</v>
+        <v>0.785264328122139</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.8446241258741259</v>
+        <v>0.9675</v>
       </c>
       <c r="B46" t="n">
-        <v>1.427435734055259</v>
+        <v>0.8533103764057159</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.9697916666666666</v>
       </c>
       <c r="B47" t="n">
-        <v>1.456630517135967</v>
+        <v>0.8100503832101822</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.8304195804195804</v>
+        <v>0.9697916666666666</v>
       </c>
       <c r="B48" t="n">
-        <v>1.413518726825714</v>
+        <v>0.7904331535100937</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.8417832167832168</v>
+        <v>0.975</v>
       </c>
       <c r="B49" t="n">
-        <v>1.41531873291189</v>
+        <v>0.7880304157733917</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.8332604895104896</v>
+        <v>0.9550000000000001</v>
       </c>
       <c r="B50" t="n">
-        <v>1.417258728634227</v>
+        <v>0.7873315662145615</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.8304195804195804</v>
+        <v>0.9647916666666666</v>
       </c>
       <c r="B51" t="n">
-        <v>1.412529804489829</v>
+        <v>0.8049315959215164</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.8389423076923077</v>
+        <v>0.9597916666666666</v>
       </c>
       <c r="B52" t="n">
-        <v>1.415892015803944</v>
+        <v>0.8037452846765518</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.8332604895104896</v>
+        <v>0.9647916666666666</v>
       </c>
       <c r="B53" t="n">
-        <v>1.409795777364211</v>
+        <v>0.7739545255899429</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.8389423076923077</v>
+        <v>0.9647916666666666</v>
       </c>
       <c r="B54" t="n">
-        <v>1.415117973631079</v>
+        <v>0.7826417684555054</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.8389423076923077</v>
+        <v>0.97</v>
       </c>
       <c r="B55" t="n">
-        <v>1.406985179944472</v>
+        <v>0.7772433757781982</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.8389423076923077</v>
+        <v>0.97</v>
       </c>
       <c r="B56" t="n">
-        <v>1.407389174808156</v>
+        <v>0.7737359553575516</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.8361013986013986</v>
+        <v>0.97</v>
       </c>
       <c r="B57" t="n">
-        <v>1.410638175227425</v>
+        <v>0.7713614255189896</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.8417832167832168</v>
+        <v>0.9672916666666665</v>
       </c>
       <c r="B58" t="n">
-        <v>1.408675719391216</v>
+        <v>0.7690849602222443</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.8389423076923077</v>
+        <v>0.97</v>
       </c>
       <c r="B59" t="n">
-        <v>1.407061950726943</v>
+        <v>0.7736064344644547</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.8389423076923077</v>
+        <v>0.975</v>
       </c>
       <c r="B60" t="n">
-        <v>1.405822938138788</v>
+        <v>0.7643453031778336</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.8446241258741259</v>
+        <v>0.9724999999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>1.403922416947105</v>
+        <v>0.8122610747814178</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.847465034965035</v>
+        <v>0.9622916666666667</v>
       </c>
       <c r="B62" t="n">
-        <v>1.411335614594546</v>
+        <v>0.7780471593141556</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.8446241258741259</v>
+        <v>0.97</v>
       </c>
       <c r="B63" t="n">
-        <v>1.408958397128365</v>
+        <v>0.7843171656131744</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.8417832167832168</v>
+        <v>0.9597916666666666</v>
       </c>
       <c r="B64" t="n">
-        <v>1.410057842731476</v>
+        <v>0.7848026156425476</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.8361013986013986</v>
+        <v>0.9724999999999999</v>
       </c>
       <c r="B65" t="n">
-        <v>1.405984352935444</v>
+        <v>0.7680720537900925</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.8389423076923077</v>
+        <v>0.9647916666666666</v>
       </c>
       <c r="B66" t="n">
-        <v>1.403214980255474</v>
+        <v>0.7700971066951752</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.8417832167832168</v>
+        <v>0.9647916666666666</v>
       </c>
       <c r="B67" t="n">
-        <v>1.401930635625666</v>
+        <v>0.7726937085390091</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.847465034965035</v>
+        <v>0.9622916666666667</v>
       </c>
       <c r="B68" t="n">
-        <v>1.40496718341654</v>
+        <v>0.7704602479934692</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.8446241258741259</v>
+        <v>0.9697916666666666</v>
       </c>
       <c r="B69" t="n">
-        <v>1.39953534711491</v>
+        <v>0.773385688662529</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.847465034965035</v>
+        <v>0.9622916666666667</v>
       </c>
       <c r="B70" t="n">
-        <v>1.39997072653337</v>
+        <v>0.7676086723804474</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.8332604895104896</v>
+        <v>0.965</v>
       </c>
       <c r="B71" t="n">
-        <v>1.437788134271448</v>
+        <v>0.7624181658029556</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.8389423076923077</v>
+        <v>0.9622916666666667</v>
       </c>
       <c r="B72" t="n">
-        <v>1.403503976084969</v>
+        <v>0.767136424779892</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.847465034965035</v>
+        <v>0.9622916666666667</v>
       </c>
       <c r="B73" t="n">
-        <v>1.401601883498105</v>
+        <v>0.7750175148248672</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.847465034965035</v>
+        <v>0.9622916666666667</v>
       </c>
       <c r="B74" t="n">
-        <v>1.403473783623088</v>
+        <v>0.7776506096124649</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.8531468531468532</v>
+        <v>0.9572916666666667</v>
       </c>
       <c r="B75" t="n">
-        <v>1.404945639046756</v>
+        <v>0.7671249508857727</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.8503059440559441</v>
+        <v>0.9672916666666665</v>
       </c>
       <c r="B76" t="n">
-        <v>1.402812979438088</v>
+        <v>0.7648128569126129</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.847465034965035</v>
+        <v>0.9647916666666666</v>
       </c>
       <c r="B77" t="n">
-        <v>1.403802552006461</v>
+        <v>0.7550372332334518</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.8446241258741259</v>
+        <v>0.9572916666666665</v>
       </c>
       <c r="B78" t="n">
-        <v>1.402442119338296</v>
+        <v>0.7662287205457687</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.8304195804195804</v>
+        <v>0.9597916666666666</v>
       </c>
       <c r="B79" t="n">
-        <v>1.450674961913716</v>
+        <v>0.7519408017396927</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.8361013986013986</v>
+        <v>0.9647916666666666</v>
       </c>
       <c r="B80" t="n">
-        <v>1.41085334257646</v>
+        <v>0.7597141265869141</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.8417832167832168</v>
+        <v>0.9622916666666667</v>
       </c>
       <c r="B81" t="n">
-        <v>1.404405452988364</v>
+        <v>0.7687343955039978</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.8531468531468532</v>
+        <v>0.9622916666666667</v>
       </c>
       <c r="B82" t="n">
-        <v>1.40514303337444</v>
+        <v>0.7519066333770752</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.8531468531468532</v>
+        <v>0.9622916666666667</v>
       </c>
       <c r="B83" t="n">
-        <v>1.402246079661629</v>
+        <v>0.7504238933324814</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.8503059440559441</v>
+        <v>0.9647916666666666</v>
       </c>
       <c r="B84" t="n">
-        <v>1.401272156021812</v>
+        <v>0.7492597103118896</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.847465034965035</v>
+        <v>0.9647916666666666</v>
       </c>
       <c r="B85" t="n">
-        <v>1.39926835081794</v>
+        <v>0.7551673650741577</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.8446241258741259</v>
+        <v>0.9672916666666665</v>
       </c>
       <c r="B86" t="n">
-        <v>1.403040208599784</v>
+        <v>0.7465557008981705</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.8389423076923077</v>
+        <v>0.9622916666666667</v>
       </c>
       <c r="B87" t="n">
-        <v>1.405697226524353</v>
+        <v>0.767748236656189</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.8417832167832168</v>
+        <v>0.9724999999999999</v>
       </c>
       <c r="B88" t="n">
-        <v>1.429245786233382</v>
+        <v>0.7559953182935715</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.8417832167832168</v>
+        <v>0.9672916666666665</v>
       </c>
       <c r="B89" t="n">
-        <v>1.417374887249687</v>
+        <v>0.7620624750852585</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.847465034965035</v>
+        <v>0.9675</v>
       </c>
       <c r="B90" t="n">
-        <v>1.401325177062642</v>
+        <v>0.7633671313524246</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.847465034965035</v>
+        <v>0.9722916666666667</v>
       </c>
       <c r="B91" t="n">
-        <v>1.406143475662578</v>
+        <v>0.7516879141330719</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.8446241258741259</v>
+        <v>0.9647916666666666</v>
       </c>
       <c r="B92" t="n">
-        <v>1.402731657028198</v>
+        <v>0.7494897842407227</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.8503059440559441</v>
+        <v>0.9622916666666667</v>
       </c>
       <c r="B93" t="n">
-        <v>1.410581334070726</v>
+        <v>0.7466949373483658</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.8503059440559441</v>
+        <v>0.9697916666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>1.398414118723436</v>
+        <v>0.7547311931848526</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.8503059440559441</v>
+        <v>0.9672916666666665</v>
       </c>
       <c r="B95" t="n">
-        <v>1.398785683241758</v>
+        <v>0.7401024997234344</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.8503059440559441</v>
+        <v>0.9724999999999999</v>
       </c>
       <c r="B96" t="n">
-        <v>1.397932469844818</v>
+        <v>0.7428600043058395</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.8503059440559441</v>
+        <v>0.97</v>
       </c>
       <c r="B97" t="n">
-        <v>1.398296578363939</v>
+        <v>0.7427037954330444</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.8531468531468532</v>
+        <v>0.975</v>
       </c>
       <c r="B98" t="n">
-        <v>1.401417878541079</v>
+        <v>0.7505693435668945</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.8531468531468532</v>
+        <v>0.9647916666666666</v>
       </c>
       <c r="B99" t="n">
-        <v>1.406739576296373</v>
+        <v>0.7452129572629929</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.8531468531468532</v>
+        <v>0.975</v>
       </c>
       <c r="B100" t="n">
-        <v>1.397004961967468</v>
+        <v>0.7583625614643097</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.8531468531468532</v>
+        <v>0.9672916666666665</v>
       </c>
       <c r="B101" t="n">
-        <v>1.414098577065901</v>
+        <v>0.7384196817874908</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.9647916666666666</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.7391714155673981</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.9672916666666665</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.7413791716098785</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.7464491426944733</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.9672916666666665</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.7493661940097809</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.9672916666666665</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.7373687475919724</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.9697916666666666</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.7365096658468246</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.9697916666666666</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.7672358155250549</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.9645833333333333</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.7445428073406219</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.9697916666666666</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.7417546659708023</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.9722916666666667</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.748213142156601</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.9722916666666667</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.7448992729187012</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.9622916666666667</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.7369631826877594</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.9722916666666667</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.7336776852607727</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.9722916666666667</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.7472577691078186</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.9597916666666666</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.7471998035907745</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.9697916666666666</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.7351965755224228</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.9647916666666666</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.731392040848732</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.9672916666666665</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.7441897243261337</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.9697916666666666</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.7379049211740494</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.9622916666666667</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.7338730096817017</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.9597916666666666</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.7360184341669083</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.7346484810113907</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.9647916666666666</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.7397774457931519</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.7523921281099319</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.9747916666666666</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.7403658330440521</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.7317824512720108</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.9697916666666666</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.7405882030725479</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.9647916666666666</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.7443736642599106</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.9724999999999999</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.7477186024188995</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.9597916666666666</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.7358871698379517</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.7356006056070328</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.7298964709043503</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.7332070469856262</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.9647916666666666</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.7347034066915512</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.7341009378433228</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.9647916666666666</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.7541784793138504</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.9647916666666666</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.7421790808439255</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.7308342009782791</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.9647916666666666</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.7395896166563034</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.7295184284448624</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.9647916666666666</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.734693244099617</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.9672916666666665</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.7352361232042313</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.7444251924753189</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.9672916666666665</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.7283429503440857</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.7436320185661316</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.7343445271253586</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.7295986264944077</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.7433785796165466</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.9647916666666666</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.7318759560585022</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.9697916666666666</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.7291443347930908</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.9647916666666666</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.7307480275630951</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.9647916666666666</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.7530303001403809</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.9724999999999999</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.7221366465091705</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.9625</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.7275477945804596</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.9572916666666667</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.730132520198822</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.9724999999999999</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.7246180772781372</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.9647916666666666</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.7330342680215836</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.9647916666666666</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.7371914833784103</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.9647916666666666</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.7381703704595566</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.9647916666666666</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.723315104842186</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.9622916666666667</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.728267714381218</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.9724999999999999</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.7363461703062057</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.9622916666666667</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.7319691032171249</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.9675</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.7355233430862427</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.7423050105571747</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.9572916666666667</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.7265066355466843</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.7291553765535355</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.9622916666666667</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.727481871843338</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.9672916666666665</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.7361937463283539</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.7293254435062408</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.9724999999999999</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.721514031291008</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.9672916666666665</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.7278138101100922</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.9724999999999999</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.7266790717840195</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.7268780916929245</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.9672916666666665</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.7207986861467361</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.7322818636894226</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.9597916666666666</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.729486882686615</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.9647916666666666</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.727439820766449</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.7267439365386963</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.9675</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.7337688356637955</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.9675</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.7213575392961502</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.9672916666666665</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.7252103686332703</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.9622916666666667</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.7281353026628494</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.9697916666666666</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.7246406823396683</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.9672916666666665</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.7224499881267548</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.9622916666666667</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.7200350612401962</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.7345452755689621</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.9672916666666665</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.726137101650238</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.9672916666666665</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.7322246134281158</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.9724999999999999</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.7168044298887253</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.7186313271522522</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.9722916666666667</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.726346492767334</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.9672916666666665</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.7267278283834457</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.9672916666666665</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.7232457995414734</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.9672916666666665</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.7226353585720062</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.9724999999999999</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.7213040590286255</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.7267068922519684</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.9622916666666667</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.7211747914552689</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.7201529294252396</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.9675</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.7185550183057785</v>
       </c>
     </row>
   </sheetData>
